--- a/Nøgletal.xlsx
+++ b/Nøgletal.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Nøgletal</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Ændring i egenkapital</t>
   </si>
   <si>
-    <t>Likviditet</t>
-  </si>
-  <si>
     <t>Soliditet</t>
   </si>
   <si>
@@ -42,25 +39,20 @@
     <t>Dækningsgrad</t>
   </si>
   <si>
-    <t>Stigning i %</t>
+    <t>Enhed</t>
+  </si>
+  <si>
+    <t>Mio. kr.</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_ &quot;kr.&quot;\ * #,##0.00_ ;_ &quot;kr.&quot;\ * \-#,##0.00_ ;_ &quot;kr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ &quot;kr.&quot;\ * #,##0_ ;_ &quot;kr.&quot;\ * \-#,##0_ ;_ &quot;kr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,12 +85,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFA6A6A6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -107,57 +99,84 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
-    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -456,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,100 +489,122 @@
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3">
         <v>2009</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="3">
         <v>2010</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="3">
         <v>2011</v>
       </c>
-      <c r="E1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="6">
+        <v>592</v>
+      </c>
+      <c r="D2" s="6">
+        <v>756</v>
+      </c>
+      <c r="E2" s="6">
+        <v>829</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9">
-        <v>592</v>
-      </c>
-      <c r="C2" s="9">
-        <v>756</v>
-      </c>
-      <c r="D2" s="9">
-        <v>829</v>
-      </c>
-      <c r="E2" s="10">
-        <f>(D2-B2)/B2*100</f>
-        <v>40.033783783783782</v>
+    <row r="3" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6">
+        <v>58.6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>70.8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>58.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5"/>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4.25</v>
+      </c>
+      <c r="D4" s="6">
+        <v>19.57</v>
+      </c>
+      <c r="E4" s="6">
+        <v>16.100000000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.58599999999999997</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="E4" s="5"/>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6">
+        <v>4.37</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7.22</v>
+      </c>
+      <c r="E5" s="6">
+        <v>6.13</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.97</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.71</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6">
+        <v>91.95</v>
+      </c>
+      <c r="D7" s="6">
+        <v>94.98</v>
+      </c>
+      <c r="E7" s="6">
+        <v>95.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
